--- a/Player Database/Raul.xlsx
+++ b/Player Database/Raul.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="26">
   <si>
     <t xml:space="preserve">TEAM</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">WCQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substitute</t>
   </si>
   <si>
     <t xml:space="preserve">WC</t>
@@ -303,8 +300,8 @@
   </sheetPr>
   <dimension ref="A1:H526"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:H"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D170" activeCellId="0" sqref="D170 D192 D211 D213:D214 D218:D219 D243 D246 D265 D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4643,8 +4640,8 @@
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>16</v>
+      <c r="D170" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E170" s="2" t="n">
         <v>0</v>
@@ -5209,8 +5206,8 @@
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>16</v>
+      <c r="D192" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E192" s="2" t="n">
         <v>0</v>
@@ -5703,8 +5700,8 @@
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>16</v>
+      <c r="D211" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E211" s="2" t="n">
         <v>0</v>
@@ -5756,8 +5753,8 @@
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D213" s="2" t="s">
-        <v>16</v>
+      <c r="D213" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E213" s="2" t="n">
         <v>0</v>
@@ -5782,8 +5779,8 @@
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>16</v>
+      <c r="D214" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E214" s="2" t="n">
         <v>0</v>
@@ -5886,8 +5883,8 @@
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>16</v>
+      <c r="D218" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E218" s="2" t="n">
         <v>0</v>
@@ -5912,8 +5909,8 @@
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>16</v>
+      <c r="D219" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E219" s="2" t="n">
         <v>0</v>
@@ -6206,7 +6203,7 @@
         <v>38882</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D231" s="2" t="n">
         <f aca="false">90-54</f>
@@ -6233,7 +6230,7 @@
         <v>38887</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D232" s="2" t="n">
         <f aca="false">90-45</f>
@@ -6260,7 +6257,7 @@
         <v>38891</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>45</v>
@@ -6286,7 +6283,7 @@
         <v>38895</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>53</v>
@@ -6522,8 +6519,8 @@
       <c r="C243" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>16</v>
+      <c r="D243" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E243" s="2" t="n">
         <v>0</v>
@@ -6600,8 +6597,8 @@
       <c r="C246" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>16</v>
+      <c r="D246" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E246" s="2" t="n">
         <v>0</v>
@@ -6988,7 +6985,7 @@
         <v>39093</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D261" s="2" t="n">
         <f aca="false">90-73</f>
@@ -7095,8 +7092,8 @@
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>16</v>
+      <c r="D265" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E265" s="2" t="n">
         <v>0</v>
@@ -7901,8 +7898,8 @@
       <c r="C296" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D296" s="2" t="s">
-        <v>16</v>
+      <c r="D296" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E296" s="2" t="n">
         <v>1</v>
@@ -9314,7 +9311,7 @@
         <v>39763</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D351" s="2" t="n">
         <v>90</v>
@@ -11208,13 +11205,13 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B424" s="3" t="n">
         <v>40411</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D424" s="2" t="n">
         <v>62</v>
@@ -11234,13 +11231,13 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B425" s="3" t="n">
         <v>40418</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D425" s="2" t="n">
         <v>90</v>
@@ -11260,13 +11257,13 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B426" s="3" t="n">
         <v>40431</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D426" s="2" t="n">
         <v>90</v>
@@ -11286,7 +11283,7 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B427" s="3" t="n">
         <v>40435</v>
@@ -11312,13 +11309,13 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B428" s="3" t="n">
         <v>40440</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D428" s="2" t="n">
         <v>90</v>
@@ -11338,13 +11335,13 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B429" s="3" t="n">
         <v>40443</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D429" s="2" t="n">
         <v>90</v>
@@ -11364,13 +11361,13 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B430" s="3" t="n">
         <v>40446</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D430" s="2" t="n">
         <v>90</v>
@@ -11390,7 +11387,7 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B431" s="3" t="n">
         <v>40450</v>
@@ -11416,13 +11413,13 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B432" s="3" t="n">
         <v>40453</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D432" s="2" t="n">
         <v>53</v>
@@ -11442,13 +11439,13 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B433" s="3" t="n">
         <v>40467</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D433" s="2" t="n">
         <v>90</v>
@@ -11468,7 +11465,7 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B434" s="3" t="n">
         <v>40471</v>
@@ -11494,13 +11491,13 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B435" s="3" t="n">
         <v>40474</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D435" s="2" t="n">
         <v>90</v>
@@ -11520,13 +11517,13 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B436" s="3" t="n">
         <v>40477</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D436" s="2" t="n">
         <v>0</v>
@@ -11538,13 +11535,13 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B437" s="3" t="n">
         <v>40481</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D437" s="2" t="n">
         <v>90</v>
@@ -11564,7 +11561,7 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B438" s="3" t="n">
         <v>40484</v>
@@ -11590,13 +11587,13 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B439" s="3" t="n">
         <v>40487</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D439" s="2" t="n">
         <v>90</v>
@@ -11616,13 +11613,13 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B440" s="3" t="n">
         <v>40495</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D440" s="2" t="n">
         <v>90</v>
@@ -11642,13 +11639,13 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B441" s="3" t="n">
         <v>40502</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D441" s="2" t="n">
         <v>78</v>
@@ -11668,7 +11665,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B442" s="3" t="n">
         <v>40506</v>
@@ -11694,13 +11691,13 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B443" s="3" t="n">
         <v>40509</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D443" s="2" t="n">
         <v>90</v>
@@ -11720,13 +11717,13 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B444" s="3" t="n">
         <v>40516</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D444" s="2" t="n">
         <v>59</v>
@@ -11746,7 +11743,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B445" s="3" t="n">
         <v>40519</v>
@@ -11772,13 +11769,13 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B446" s="3" t="n">
         <v>40524</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D446" s="2" t="n">
         <v>90</v>
@@ -11798,13 +11795,13 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B447" s="3" t="n">
         <v>40530</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D447" s="2" t="n">
         <v>87</v>
@@ -11824,13 +11821,13 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B448" s="3" t="n">
         <v>40533</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D448" s="2" t="n">
         <v>90</v>
@@ -11850,13 +11847,13 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B449" s="3" t="n">
         <v>40558</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D449" s="2" t="n">
         <v>90</v>
@@ -11876,13 +11873,13 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B450" s="3" t="n">
         <v>40565</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D450" s="2" t="n">
         <v>90</v>
@@ -11902,13 +11899,13 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B451" s="3" t="n">
         <v>40568</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D451" s="2" t="n">
         <v>90</v>
@@ -11928,13 +11925,13 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B452" s="3" t="n">
         <v>40572</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D452" s="2" t="n">
         <v>90</v>
@@ -11954,13 +11951,13 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B453" s="3" t="n">
         <v>40578</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D453" s="2" t="n">
         <v>90</v>
@@ -11980,13 +11977,13 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B454" s="3" t="n">
         <v>40586</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D454" s="2" t="n">
         <v>90</v>
@@ -12006,7 +12003,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B455" s="3" t="n">
         <v>40589</v>
@@ -12032,13 +12029,13 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B456" s="3" t="n">
         <v>40594</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D456" s="2" t="n">
         <v>90</v>
@@ -12058,13 +12055,13 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B457" s="3" t="n">
         <v>40600</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D457" s="2" t="n">
         <v>90</v>
@@ -12084,13 +12081,13 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B458" s="3" t="n">
         <v>40604</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D458" s="2" t="n">
         <v>90</v>
@@ -12110,13 +12107,13 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B459" s="3" t="n">
         <v>40607</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D459" s="2" t="n">
         <v>90</v>
@@ -12136,7 +12133,7 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B460" s="3" t="n">
         <v>40611</v>
@@ -12162,13 +12159,13 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B461" s="3" t="n">
         <v>40614</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D461" s="2" t="n">
         <v>90</v>
@@ -12188,13 +12185,13 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B462" s="3" t="n">
         <v>40622</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D462" s="2" t="n">
         <v>90</v>
@@ -12214,13 +12211,13 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B463" s="3" t="n">
         <v>40634</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D463" s="2" t="n">
         <v>90</v>
@@ -12240,7 +12237,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B464" s="3" t="n">
         <v>40638</v>
@@ -12266,13 +12263,13 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B465" s="3" t="n">
         <v>40642</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D465" s="2" t="n">
         <v>90</v>
@@ -12292,7 +12289,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B466" s="3" t="n">
         <v>40646</v>
@@ -12318,13 +12315,13 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B467" s="3" t="n">
         <v>40649</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D467" s="2" t="n">
         <v>74</v>
@@ -12344,13 +12341,13 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B468" s="3" t="n">
         <v>40656</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D468" s="2" t="n">
         <v>90</v>
@@ -12370,7 +12367,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B469" s="3" t="n">
         <v>40659</v>
@@ -12396,13 +12393,13 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B470" s="3" t="n">
         <v>40663</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D470" s="2" t="n">
         <v>45</v>
@@ -12422,7 +12419,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B471" s="3" t="n">
         <v>40667</v>
@@ -12448,13 +12445,13 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B472" s="3" t="n">
         <v>40670</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D472" s="2" t="n">
         <v>90</v>
@@ -12474,13 +12471,13 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B473" s="3" t="n">
         <v>40677</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D473" s="2" t="n">
         <v>90</v>
@@ -12500,13 +12497,13 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B474" s="3" t="n">
         <v>40684</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D474" s="2" t="n">
         <v>90</v>
@@ -12526,13 +12523,13 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B475" s="3" t="n">
         <v>40755</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D475" s="2" t="n">
         <v>90</v>
@@ -12552,13 +12549,13 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B476" s="3" t="n">
         <v>40761</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D476" s="2" t="n">
         <v>90</v>
@@ -12578,13 +12575,13 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B477" s="3" t="n">
         <v>40768</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D477" s="2" t="n">
         <v>81</v>
@@ -12604,13 +12601,13 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B478" s="3" t="n">
         <v>40776</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D478" s="2" t="n">
         <v>90</v>
@@ -12630,13 +12627,13 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B479" s="3" t="n">
         <v>40780</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D479" s="2" t="n">
         <v>90</v>
@@ -12656,13 +12653,13 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B480" s="3" t="n">
         <v>40783</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D480" s="2" t="n">
         <v>90</v>
@@ -12682,13 +12679,13 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B481" s="3" t="n">
         <v>40797</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D481" s="2" t="n">
         <v>90</v>
@@ -12708,13 +12705,13 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B482" s="3" t="n">
         <v>40801</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D482" s="2" t="n">
         <v>90</v>
@@ -12734,13 +12731,13 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B483" s="3" t="n">
         <v>40804</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D483" s="2" t="n">
         <v>90</v>
@@ -12760,13 +12757,13 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B484" s="3" t="n">
         <v>40810</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D484" s="2" t="n">
         <v>90</v>
@@ -12786,13 +12783,13 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B485" s="3" t="n">
         <v>40815</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D485" s="2" t="n">
         <v>90</v>
@@ -12812,13 +12809,13 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B486" s="3" t="n">
         <v>40818</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D486" s="2" t="n">
         <v>90</v>
@@ -12838,13 +12835,13 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B487" s="3" t="n">
         <v>40831</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D487" s="2" t="n">
         <v>90</v>
@@ -12864,13 +12861,13 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B488" s="3" t="n">
         <v>40836</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D488" s="2" t="n">
         <v>45</v>
@@ -12890,13 +12887,13 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B489" s="3" t="n">
         <v>40839</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D489" s="2" t="n">
         <v>90</v>
@@ -12916,13 +12913,13 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B490" s="3" t="n">
         <v>40842</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D490" s="2" t="n">
         <v>85</v>
@@ -12942,13 +12939,13 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B491" s="3" t="n">
         <v>40845</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D491" s="2" t="n">
         <v>85</v>
@@ -12968,13 +12965,13 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B492" s="3" t="n">
         <v>40853</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D492" s="2" t="n">
         <v>90</v>
@@ -12994,13 +12991,13 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B493" s="3" t="n">
         <v>40866</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D493" s="2" t="n">
         <v>90</v>
@@ -13020,13 +13017,13 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B494" s="3" t="n">
         <v>40873</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D494" s="2" t="n">
         <v>90</v>
@@ -13046,13 +13043,13 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B495" s="3" t="n">
         <v>40878</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D495" s="2" t="n">
         <v>90</v>
@@ -13072,13 +13069,13 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B496" s="3" t="n">
         <v>40881</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D496" s="2" t="n">
         <v>87</v>
@@ -13098,13 +13095,13 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B497" s="3" t="n">
         <v>40886</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D497" s="2" t="n">
         <v>90</v>
@@ -13124,13 +13121,13 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B498" s="3" t="n">
         <v>40894</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D498" s="2" t="n">
         <v>90</v>
@@ -13150,13 +13147,13 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B499" s="3" t="n">
         <v>40898</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D499" s="2" t="n">
         <v>90</v>
@@ -13176,13 +13173,13 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B500" s="3" t="n">
         <v>40929</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D500" s="2" t="n">
         <v>90</v>
@@ -13202,13 +13199,13 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B501" s="3" t="n">
         <v>40943</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D501" s="2" t="n">
         <v>72</v>
@@ -13228,13 +13225,13 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B502" s="3" t="n">
         <v>40950</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D502" s="2" t="n">
         <v>90</v>
@@ -13254,13 +13251,13 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B503" s="3" t="n">
         <v>40955</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D503" s="2" t="n">
         <v>68</v>
@@ -13280,13 +13277,13 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B504" s="3" t="n">
         <v>40958</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D504" s="2" t="n">
         <v>90</v>
@@ -13306,13 +13303,13 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B505" s="3" t="n">
         <v>40962</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D505" s="2" t="n">
         <v>118</v>
@@ -13332,13 +13329,13 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B506" s="3" t="n">
         <v>40965</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D506" s="2" t="n">
         <v>90</v>
@@ -13358,13 +13355,13 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B507" s="3" t="n">
         <v>40971</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D507" s="2" t="n">
         <v>70</v>
@@ -13384,13 +13381,13 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B508" s="3" t="n">
         <v>40976</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D508" s="2" t="n">
         <v>89</v>
@@ -13410,13 +13407,13 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B509" s="3" t="n">
         <v>40979</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D509" s="2" t="n">
         <v>90</v>
@@ -13436,13 +13433,13 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B510" s="3" t="n">
         <v>40983</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D510" s="2" t="n">
         <v>90</v>
@@ -13462,13 +13459,13 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B511" s="3" t="n">
         <v>40986</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D511" s="2" t="n">
         <v>76</v>
@@ -13488,13 +13485,13 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B512" s="3" t="n">
         <v>40992</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D512" s="2" t="n">
         <v>90</v>
@@ -13514,13 +13511,13 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B513" s="3" t="n">
         <v>40997</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D513" s="2" t="n">
         <v>90</v>
@@ -13540,13 +13537,13 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B514" s="3" t="n">
         <v>41000</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D514" s="2" t="n">
         <v>90</v>
@@ -13566,13 +13563,13 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B515" s="3" t="n">
         <v>41004</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D515" s="2" t="n">
         <v>90</v>
@@ -13592,13 +13589,13 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B516" s="3" t="n">
         <v>41007</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D516" s="2" t="n">
         <v>70</v>
@@ -13618,13 +13615,13 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B517" s="3" t="n">
         <v>41010</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D517" s="2" t="n">
         <v>90</v>
@@ -13644,13 +13641,13 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B518" s="3" t="n">
         <v>41013</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D518" s="2" t="n">
         <v>90</v>
@@ -13670,13 +13667,13 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B519" s="3" t="n">
         <v>41021</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D519" s="2" t="n">
         <v>89</v>
@@ -13696,13 +13693,13 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B520" s="3" t="n">
         <v>41027</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D520" s="2" t="n">
         <v>90</v>
@@ -13722,13 +13719,13 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B521" s="3" t="n">
         <v>41034</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D521" s="2" t="n">
         <v>0</v>
@@ -13740,13 +13737,13 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B522" s="3" t="n">
         <v>41710</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D522" s="2" t="n">
         <v>80</v>
@@ -13766,13 +13763,13 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B523" s="3" t="n">
         <v>41717</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D523" s="2" t="n">
         <v>68</v>
@@ -13792,13 +13789,13 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B524" s="3" t="n">
         <v>41751</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D524" s="2" t="n">
         <f aca="false">90-56</f>
@@ -13819,13 +13816,13 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B525" s="3" t="n">
         <v>42172</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D525" s="2" t="n">
         <v>86</v>
@@ -13845,13 +13842,13 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B526" s="3" t="n">
         <v>42186</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D526" s="2" t="n">
         <f aca="false">90-45</f>
@@ -13889,7 +13886,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:H A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="9" sqref="D170 D192 D211 D213:D214 D218:D219 D243 D246 D265 D296 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13915,7 +13912,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:H A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="9" sqref="D170 D192 D211 D213:D214 D218:D219 D243 D246 D265 D296 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
